--- a/数据表/Avalue.xlsx
+++ b/数据表/Avalue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Avalue" sheetId="1" r:id="rId1"/>
